--- a/biology/Botanique/Sirop_de_pomme_de_terre/Sirop_de_pomme_de_terre.xlsx
+++ b/biology/Botanique/Sirop_de_pomme_de_terre/Sirop_de_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sirop de pomme de terre est un sirop de glucose produit à partir de fécule de pomme de terre. Cette transformation était obtenue autrefois par hydrolyse à l'aide d'acide chlorhydrique, puis par la suite par réaction enzymatique à l'aide d'amylase.
 Ce sirop est constitué d'environ 40 % de glucose, 40 % de dextrine et 20 % d'eau.
 Il est utilisé comme substitut du sucre et du sirop de sucre, notamment dans la fabrication de produits de boulangerie.
-Aux Pays-Bas, la production de sirop de pomme de terre a commencé en 1819 à Gouda où fut construite la première féculerie-glucoserie[1]. Elle a duré jusqu'en 2003 sur le site Avebe DWM de Veendam.
+Aux Pays-Bas, la production de sirop de pomme de terre a commencé en 1819 à Gouda où fut construite la première féculerie-glucoserie. Elle a duré jusqu'en 2003 sur le site Avebe DWM de Veendam.
 </t>
         </is>
       </c>
